--- a/com.tyss.studentmanagementframework/src/test/resources/SDET37TestData1.xlsx
+++ b/com.tyss.studentmanagementframework/src/test/resources/SDET37TestData1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="400" yWindow="60" windowWidth="13340" windowHeight="5300" activeTab="9"/>
+    <workbookView xWindow="400" yWindow="60" windowWidth="13340" windowHeight="5300"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="orgname" sheetId="8" r:id="rId8"/>
     <sheet name="contactspage" sheetId="9" r:id="rId9"/>
     <sheet name="Teacher " sheetId="10" r:id="rId10"/>
+    <sheet name="Sheet4" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
@@ -462,8 +463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -502,8 +503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -519,6 +520,18 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -730,7 +743,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
